--- a/douments/Progress.xlsx
+++ b/douments/Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bit\douments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4E21A3-95E1-469D-8733-A21AAF083F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE860D2-B69C-4C00-BE10-D5E714989560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11748" yWindow="2340" windowWidth="30960" windowHeight="18024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Need To Add Warranty In Insert Item Table </t>
   </si>
   <si>
-    <t>item specification update details not pop in the text box</t>
-  </si>
-  <si>
     <t>line 23 null varibalie in individual product view in system with out having the stock count</t>
   </si>
   <si>
@@ -112,6 +109,9 @@
   </si>
   <si>
     <t>Not Done</t>
+  </si>
+  <si>
+    <t>item specification update details not pop in the text box (ajax)</t>
   </si>
 </sst>
 </file>
@@ -452,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -487,10 +487,10 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -516,23 +516,23 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -555,20 +555,20 @@
         <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3"/>
     </row>
@@ -576,7 +576,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -592,7 +592,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
